--- a/Problems Summary.xlsx
+++ b/Problems Summary.xlsx
@@ -232,17 +232,17 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -834,7 +834,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -842,16 +842,16 @@
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="30.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.296875" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="75.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -860,7 +860,7 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -877,13 +877,13 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
@@ -894,28 +894,28 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -964,12 +964,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="7" t="str">
+      <c r="B1" s="10" t="str">
         <f>Title</f>
         <v>Problem Solving</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1108,12 +1108,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="7" t="str">
+      <c r="B1" s="10" t="str">
         <f>Title</f>
         <v>Problem Solving</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1231,6 +1231,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d92cf942c19623f8ea37c5ae89e9e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ae4c53a902569674f13d354e575c07c" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1411,17 +1422,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1432,6 +1432,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6F333A-FB7A-4713-AA13-3301CC37B3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1450,16 +1460,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
   <ds:schemaRefs>

--- a/Problems Summary.xlsx
+++ b/Problems Summary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Done?</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Check the reminder in hashtable. If not found, store value in the table else return the index</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Fibonaaci</t>
+  </si>
+  <si>
+    <t>Store the computed sub-problem in hashTable. If the value is found in the hashTable, return else store it.</t>
   </si>
 </sst>
 </file>
@@ -834,7 +843,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -894,7 +903,18 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
@@ -1231,17 +1251,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d92cf942c19623f8ea37c5ae89e9e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ae4c53a902569674f13d354e575c07c" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1422,6 +1431,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1432,16 +1452,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6F333A-FB7A-4713-AA13-3301CC37B3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1460,6 +1470,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
   <ds:schemaRefs>

--- a/Problems Summary.xlsx
+++ b/Problems Summary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Done?</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>Store the computed sub-problem in hashTable. If the value is found in the hashTable, return else store it.</t>
+  </si>
+  <si>
+    <t>DP, Recursion</t>
+  </si>
+  <si>
+    <t>Grid Traveller</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
+  </si>
+  <si>
+    <t>Identify the base cases. First solve the problem recursively(brute force) then add hash table to store the values.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fibonacci-number/</t>
   </si>
 </sst>
 </file>
@@ -221,7 +239,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -252,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -843,7 +864,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,6 +930,9 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -917,7 +941,21 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
@@ -1251,6 +1289,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d92cf942c19623f8ea37c5ae89e9e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ae4c53a902569674f13d354e575c07c" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1431,17 +1480,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1452,6 +1490,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6F333A-FB7A-4713-AA13-3301CC37B3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1470,16 +1518,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
   <ds:schemaRefs>

--- a/Problems Summary.xlsx
+++ b/Problems Summary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Done?</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/fibonacci-number/</t>
+  </si>
+  <si>
+    <t>Climb stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>IMPORTANT: Remember to return hash[n], not n. Same approach as above</t>
   </si>
 </sst>
 </file>
@@ -268,11 +277,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -864,7 +873,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -878,10 +887,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -930,7 +939,7 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E5" t="s">
@@ -947,7 +956,7 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
@@ -958,7 +967,21 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
@@ -1022,12 +1045,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="11" t="str">
         <f>Title</f>
         <v>Problem Solving</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1166,12 +1189,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="11" t="str">
         <f>Title</f>
         <v>Problem Solving</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1289,17 +1312,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d92cf942c19623f8ea37c5ae89e9e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ae4c53a902569674f13d354e575c07c" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1480,6 +1492,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1490,16 +1513,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6F333A-FB7A-4713-AA13-3301CC37B3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1518,6 +1531,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
   <ds:schemaRefs>

--- a/Problems Summary.xlsx
+++ b/Problems Summary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Done?</t>
   </si>
@@ -134,9 +134,6 @@
     <t>O(n*m)</t>
   </si>
   <si>
-    <t>Identify the base cases. First solve the problem recursively(brute force) then add hash table to store the values.</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/unique-paths/</t>
   </si>
   <si>
@@ -149,7 +146,16 @@
     <t>https://leetcode.com/problems/climbing-stairs/</t>
   </si>
   <si>
-    <t>IMPORTANT: Remember to return hash[n], not n. Same approach as above</t>
+    <t>CanSum</t>
+  </si>
+  <si>
+    <t>For problems related to sum, subtract the target from given array values and then use the calculated value as a target</t>
+  </si>
+  <si>
+    <t>For steps related problem, if doing recursively subtract the steps from the actual number. IMPORTANT: Remember to return hash[n], not n. Same approach as above</t>
+  </si>
+  <si>
+    <t>For steps related problem, if doing recursively subtract the steps from the actual number. For (m*n) grid, m-1 means going down and n-1 going right</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -940,7 +946,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -957,13 +963,13 @@
         <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,20 +977,31 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
@@ -1312,6 +1329,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3F7D94069FF64A86F7DFF56D60E3BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d92cf942c19623f8ea37c5ae89e9e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4f35948-e619-41b3-aa29-22878b09cfd2" xmlns:ns3="40262f94-9f35-4ac3-9a90-690165a166b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ae4c53a902569674f13d354e575c07c" ns2:_="" ns3:_="">
     <xsd:import namespace="a4f35948-e619-41b3-aa29-22878b09cfd2"/>
@@ -1492,17 +1520,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <VSO_x0020_item_x0020_id xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Assetid_x0020_ xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Item_x0020_Details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-    <Template_x0020_details xmlns="40262f94-9f35-4ac3-9a90-690165a166b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1513,6 +1530,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6F333A-FB7A-4713-AA13-3301CC37B3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1531,16 +1558,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3511A8E7-3D57-4C93-9399-7802901BCCB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40262f94-9f35-4ac3-9a90-690165a166b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE30400F-CAE8-4146-AE00-683424BA2263}">
   <ds:schemaRefs>
